--- a/medicine/Psychotrope/Gyokuro/Gyokuro.xlsx
+++ b/medicine/Psychotrope/Gyokuro/Gyokuro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gyokuro (玉露?, litt. « Rosée précieuse » ou « Perle de rosée ») est un thé vert japonais de haute qualité, très estimé au Japon. Il est riche en théanine et pauvre en tanins, ce qui lui confère un goût très doux et umami. Sa teneur en caféine en fait un substitut du café.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est à la fin de l'ère Edo, que le gyokuro est créé dans la région d'Uji, près de Kyoto, notamment dans les actuels bourgs de Minamiyamashiro et Wazuka. La pratique de consommer ce thé d'exception, au cours de cérémonies du thé, s'est rapidement développée au sein de la noblesse de Kyoto[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est à la fin de l'ère Edo, que le gyokuro est créé dans la région d'Uji, près de Kyoto, notamment dans les actuels bourgs de Minamiyamashiro et Wazuka. La pratique de consommer ce thé d'exception, au cours de cérémonies du thé, s'est rapidement développée au sein de la noblesse de Kyoto.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour produire du gyokuro, 3 semaines avant la récolte, les théiers sont privés de la lumière du soleil grâce à une tonnelle favorisant le développement important, par photosynthèse, de la caféine et de la chlorophylle. C’est ce qui lui confère cette couleur si particulière, ce goût si fin, si doux et si concentré, ce parfum pareil aux feuilles bleues d'algue. Environ 90 % de la lumière du soleil est retirée par une ombre artificielle provenant de paille ou fibre synthétique. Ce procédé réduit la contenance en tanins et en anthocyanes. Les pousses resteront ainsi, dans l'ombre, jusqu'au moment de la récolte. Les feuilles sont passées à la vapeur, séchées et roulées.
 Avant, ou encore de nos jours dans les jardins traditionnels, les feuilles étaient ombragées sous de la paille. Actuellement[Quand ?], on utilise surtout des fibres synthétiques mais de préférence de couleur jaune. En effet, des études ont démontré que l'ombre jaune (comme la paille) produirait une meilleure qualité de gyokuro.
